--- a/新学校投入成本预算.xlsx
+++ b/新学校投入成本预算.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>成本预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,22 @@
   </si>
   <si>
     <t>总投入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆桌椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900（含运费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台电脑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,11 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,167 +456,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>200</v>
-      </c>
-      <c r="C3" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="1">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>680</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>200</v>
-      </c>
-      <c r="C4" s="2">
-        <v>220</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="1">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1">
+        <v>180</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>300</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>240</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>700</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>800</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>380</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>350</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>350</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>500</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>500</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>500</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>150000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <f>SUM(D3:D11)</f>
-        <v>400200</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>SUM(E3:E13)</f>
+        <v>394670</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新学校投入成本预算.xlsx
+++ b/新学校投入成本预算.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,13 +502,13 @@
         <v>120</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>680</v>
       </c>
       <c r="E3" s="1">
-        <v>2360</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -519,13 +519,13 @@
         <v>135</v>
       </c>
       <c r="C4" s="1">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1">
         <v>3000</v>
       </c>
       <c r="E4" s="1">
-        <v>27300</v>
+        <v>25950</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -536,13 +536,13 @@
         <v>240</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>700</v>
       </c>
       <c r="E5" s="1">
-        <v>4060</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -570,7 +570,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -668,7 +668,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f>SUM(E3:E13)</f>
-        <v>394670</v>
+        <v>397600</v>
       </c>
     </row>
   </sheetData>

--- a/新学校投入成本预算.xlsx
+++ b/新学校投入成本预算.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -519,13 +519,13 @@
         <v>135</v>
       </c>
       <c r="C4" s="1">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1">
         <v>3000</v>
       </c>
       <c r="E4" s="1">
-        <v>25950</v>
+        <v>26760</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -598,13 +598,13 @@
         <v>350</v>
       </c>
       <c r="C9" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>3000</v>
       </c>
       <c r="E9" s="1">
-        <v>27000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -626,11 +626,11 @@
         <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>13500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -668,7 +668,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f>SUM(E3:E13)</f>
-        <v>397600</v>
+        <v>380410</v>
       </c>
     </row>
   </sheetData>

--- a/新学校投入成本预算.xlsx
+++ b/新学校投入成本预算.xlsx
@@ -615,7 +615,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>150000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -656,7 +656,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>150000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -668,7 +668,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f>SUM(E3:E13)</f>
-        <v>380410</v>
+        <v>630410</v>
       </c>
     </row>
   </sheetData>
